--- a/Tarefas.xlsx
+++ b/Tarefas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01.UniOpet\01.PI\02.2024.02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05_xampp\htdocs\01.Finmeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AF8783-D469-478B-A242-8043557BBD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5538EC8F-1919-45C5-AC6C-D4D6E2073FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7913F58B-A688-4321-8055-2A669E0A15A5}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="188">
   <si>
     <t xml:space="preserve"> Home/Painel Principal</t>
   </si>
@@ -603,6 +603,9 @@
   </si>
   <si>
     <t>ATUALIZADA</t>
+  </si>
+  <si>
+    <t>Fazer uma validação de CPF</t>
   </si>
 </sst>
 </file>
@@ -691,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -705,31 +708,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -777,6 +760,24 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -867,14 +868,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AD62FAC-C4A1-4319-85A0-C152FAAFCEC8}" name="Tabela2" displayName="Tabela2" ref="A1:C23" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C23" xr:uid="{4AD62FAC-C4A1-4319-85A0-C152FAAFCEC8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AD62FAC-C4A1-4319-85A0-C152FAAFCEC8}" name="Tabela2" displayName="Tabela2" ref="A1:C24" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:C24" xr:uid="{4AD62FAC-C4A1-4319-85A0-C152FAAFCEC8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
     <sortCondition descending="1" ref="B1:B20"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{11D749ED-137A-45EA-A1BF-FC814F13A27F}" name="TAREFAS" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{98D55523-4D28-41A2-9C4D-B5F9F4B5E2E9}" name="URGÊNCIA" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{11D749ED-137A-45EA-A1BF-FC814F13A27F}" name="TAREFAS" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{98D55523-4D28-41A2-9C4D-B5F9F4B5E2E9}" name="URGÊNCIA" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{DC3A4344-B4DC-49ED-88BD-849BF4975E2A}" name="STATUS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1252,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="12" t="str">
+      <c r="I2" t="str">
         <f>"INSERT INTO `tipoconta` (`idTipoConta`, `dscTipoConta`, `fAtivo`) VALUES ("&amp;J2&amp;", '"&amp;K2&amp;"', b'1');"</f>
         <v>INSERT INTO `tipoconta` (`idTipoConta`, `dscTipoConta`, `fAtivo`) VALUES (1, 'CONTA CORRENTE', b'1');</v>
       </c>
@@ -1292,7 +1293,7 @@
       <c r="G3" t="s">
         <v>177</v>
       </c>
-      <c r="I3" s="12" t="str">
+      <c r="I3" t="str">
         <f t="shared" ref="I3:I11" si="0">"INSERT INTO `tipoconta` (`idTipoConta`, `dscTipoConta`, `fAtivo`) VALUES ("&amp;J3&amp;", '"&amp;K3&amp;"', b'1');"</f>
         <v>INSERT INTO `tipoconta` (`idTipoConta`, `dscTipoConta`, `fAtivo`) VALUES (2, 'CONTA POUPANÇA', b'1');</v>
       </c>
@@ -1320,7 +1321,7 @@
       <c r="F4">
         <v>2.1</v>
       </c>
-      <c r="I4" s="12" t="str">
+      <c r="I4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `tipoconta` (`idTipoConta`, `dscTipoConta`, `fAtivo`) VALUES (3, 'CONTA SALÁRIO', b'1');</v>
       </c>
@@ -1357,7 +1358,7 @@
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="I5" s="12" t="str">
+      <c r="I5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `tipoconta` (`idTipoConta`, `dscTipoConta`, `fAtivo`) VALUES (4, 'CONTA CONJUNTA', b'1');</v>
       </c>
@@ -1394,7 +1395,7 @@
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="I6" s="12" t="str">
+      <c r="I6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `tipoconta` (`idTipoConta`, `dscTipoConta`, `fAtivo`) VALUES (5, 'CONTA DE INVESTIMENTO', b'1');</v>
       </c>
@@ -1434,7 +1435,7 @@
       <c r="G7" t="s">
         <v>180</v>
       </c>
-      <c r="I7" s="12" t="str">
+      <c r="I7" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `tipoconta` (`idTipoConta`, `dscTipoConta`, `fAtivo`) VALUES (6, 'CONTA DIGITAL', b'1');</v>
       </c>
@@ -1471,7 +1472,7 @@
       <c r="F8">
         <v>6</v>
       </c>
-      <c r="I8" s="12" t="str">
+      <c r="I8" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `tipoconta` (`idTipoConta`, `dscTipoConta`, `fAtivo`) VALUES (7, 'CONTA EMPRESARIAL', b'1');</v>
       </c>
@@ -1508,7 +1509,7 @@
       <c r="F9">
         <v>7</v>
       </c>
-      <c r="I9" s="12" t="str">
+      <c r="I9" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `tipoconta` (`idTipoConta`, `dscTipoConta`, `fAtivo`) VALUES (8, 'CONTA INFANTIL', b'1');</v>
       </c>
@@ -1545,7 +1546,7 @@
       <c r="F10">
         <v>8</v>
       </c>
-      <c r="I10" s="12" t="str">
+      <c r="I10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `tipoconta` (`idTipoConta`, `dscTipoConta`, `fAtivo`) VALUES (9, 'CONTA UNIVERSITÁRIA', b'1');</v>
       </c>
@@ -1585,7 +1586,7 @@
       <c r="G11" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="12" t="str">
+      <c r="I11" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `tipoconta` (`idTipoConta`, `dscTipoConta`, `fAtivo`) VALUES (10, 'CONTA DE DEPÓSITO A PRAZO', b'1');</v>
       </c>
@@ -2402,7 +2403,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" t="s">
         <v>125</v>
       </c>
       <c r="B13" t="s">
@@ -2430,10 +2431,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54533DAD-B87F-4817-B465-64A2E18071D1}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,6 +2666,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">

--- a/Tarefas.xlsx
+++ b/Tarefas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05_xampp\htdocs\01.Finmeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5538EC8F-1919-45C5-AC6C-D4D6E2073FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0D6D02-C8BE-4D8E-BC6E-F050D6C21757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7913F58B-A688-4321-8055-2A669E0A15A5}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="189">
   <si>
     <t xml:space="preserve"> Home/Painel Principal</t>
   </si>
@@ -606,6 +606,9 @@
   </si>
   <si>
     <t>Fazer uma validação de CPF</t>
+  </si>
+  <si>
+    <t>Fazer o site funcionar do jeito que está online</t>
   </si>
 </sst>
 </file>
@@ -868,10 +871,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AD62FAC-C4A1-4319-85A0-C152FAAFCEC8}" name="Tabela2" displayName="Tabela2" ref="A1:C24" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:C24" xr:uid="{4AD62FAC-C4A1-4319-85A0-C152FAAFCEC8}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C20">
-    <sortCondition descending="1" ref="B1:B20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AD62FAC-C4A1-4319-85A0-C152FAAFCEC8}" name="Tabela2" displayName="Tabela2" ref="A1:C25" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:C25" xr:uid="{4AD62FAC-C4A1-4319-85A0-C152FAAFCEC8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
+    <sortCondition descending="1" ref="B1:B25"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{11D749ED-137A-45EA-A1BF-FC814F13A27F}" name="TAREFAS" dataDxfId="1"/>
@@ -2431,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54533DAD-B87F-4817-B465-64A2E18071D1}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A27"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2459,10 +2462,10 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="B2" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>75</v>
@@ -2473,14 +2476,11 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="E3" s="8" t="s">
         <v>77</v>
       </c>
@@ -2490,11 +2490,14 @@
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="E4" s="8" t="s">
         <v>78</v>
       </c>
@@ -2504,7 +2507,7 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
@@ -2517,11 +2520,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2</v>
+      <c r="A6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>81</v>
@@ -2532,7 +2535,7 @@
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -2540,7 +2543,7 @@
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5">
         <v>2</v>
@@ -2548,7 +2551,7 @@
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B9" s="5">
         <v>2</v>
@@ -2556,7 +2559,7 @@
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
@@ -2564,7 +2567,7 @@
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B11" s="5">
         <v>2</v>
@@ -2572,7 +2575,7 @@
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
@@ -2580,7 +2583,7 @@
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B13" s="5">
         <v>2</v>
@@ -2588,7 +2591,7 @@
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
@@ -2596,7 +2599,7 @@
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
@@ -2604,23 +2607,23 @@
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1</v>
+      <c r="A17" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -2628,7 +2631,7 @@
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
@@ -2644,7 +2647,7 @@
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -2652,7 +2655,7 @@
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -2660,7 +2663,7 @@
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -2668,9 +2671,17 @@
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B25" s="6">
         <v>1</v>
       </c>
     </row>
